--- a/exercicios/hroads_desafio/RPG_ModeloFIsico.xlsx
+++ b/exercicios/hroads_desafio/RPG_ModeloFIsico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CASSIA\Documents\SENAI\SENAI 2bi\SENAI_2021\sprint1_BancodeDados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF46A9BC-DEC6-485A-86C8-7FD248E73BCC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCB73C2-181A-49F9-8E8A-782D187ED402}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{16BD0C19-073D-470A-913F-B60CA6B12AF3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>RPG Modelo Físico</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>75hp</t>
+  </si>
+  <si>
+    <t>Habilidade e sua classe</t>
   </si>
 </sst>
 </file>
@@ -184,7 +187,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +245,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,64 +325,73 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -688,301 +712,335 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D3B8E5-32EE-4205-AF67-F60D73C4075E}">
-  <dimension ref="B2:L18"/>
+  <dimension ref="B2:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.42578125" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="4" spans="2:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>1</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="12">
         <v>80</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="14">
         <v>43483</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="12">
         <v>100</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="14">
         <v>42446</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="12">
         <v>60</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="14">
         <v>43177</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="E10" s="12" t="s">
+      <c r="C10" s="15"/>
+      <c r="E10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="I10" s="8" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="I10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="L10" s="2"/>
+      <c r="J10" s="17"/>
+      <c r="L10" s="1"/>
     </row>
     <row r="11" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="10">
         <v>1</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="10">
         <v>1</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="7">
         <v>1</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="2"/>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>2</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="10">
         <v>2</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="10">
         <v>2</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="7">
         <v>2</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="2"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>3</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="10">
         <v>3</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="10">
         <v>3</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="7">
         <v>3</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>4</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="2:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
         <v>5</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
+      <c r="E16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>6</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="E17" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>7</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="E18" s="24">
+        <v>1</v>
+      </c>
+      <c r="F18" s="24">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E20" s="3">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="I10:J10"/>
